--- a/templates/library.xlsx
+++ b/templates/library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianomartinelli/projects/delt/delt-core/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCD372B-789B-6644-B939-896DD8DAFE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AC2A8D-469C-CF45-B065-B8643842BF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1700" windowWidth="27220" windowHeight="17000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3120" yWindow="-19180" windowWidth="27220" windowHeight="17000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment" sheetId="8" r:id="rId1"/>
@@ -6823,7 +6823,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="143" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -9043,7 +9043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J613"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
@@ -30517,7 +30517,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="109" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
